--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABCD/15/seed1/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABCD/15/seed1/result_data_RandomForest.xlsx
@@ -496,7 +496,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-20.74529999999998</v>
+        <v>-20.73399999999999</v>
       </c>
       <c r="B4" t="n">
         <v>8.199999999999999</v>
@@ -530,7 +530,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-22.87000000000001</v>
+        <v>-22.73870000000001</v>
       </c>
       <c r="B6" t="n">
         <v>5.51</v>
@@ -547,10 +547,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-21.9944</v>
+        <v>-21.83559999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>5.094200000000003</v>
+        <v>5.325400000000001</v>
       </c>
       <c r="C7" t="n">
         <v>-11.52</v>
@@ -635,13 +635,13 @@
         <v>-21.67</v>
       </c>
       <c r="B12" t="n">
-        <v>4.920099999999998</v>
+        <v>4.711199999999999</v>
       </c>
       <c r="C12" t="n">
         <v>-9.76</v>
       </c>
       <c r="D12" t="n">
-        <v>-7.3327</v>
+        <v>-7.201599999999998</v>
       </c>
       <c r="E12" t="n">
         <v>17.26</v>
@@ -655,7 +655,7 @@
         <v>4.02</v>
       </c>
       <c r="C13" t="n">
-        <v>-13.94799999999997</v>
+        <v>-13.21269999999999</v>
       </c>
       <c r="D13" t="n">
         <v>-8.359999999999999</v>
@@ -672,7 +672,7 @@
         <v>4.04</v>
       </c>
       <c r="C14" t="n">
-        <v>-13.74899999999999</v>
+        <v>-13.867</v>
       </c>
       <c r="D14" t="n">
         <v>-7.43</v>
@@ -686,7 +686,7 @@
         <v>-22.78</v>
       </c>
       <c r="B15" t="n">
-        <v>5.074299999999996</v>
+        <v>5.170499999999993</v>
       </c>
       <c r="C15" t="n">
         <v>-13.12</v>
@@ -700,13 +700,13 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-21.53639999999999</v>
+        <v>-21.54179999999998</v>
       </c>
       <c r="B16" t="n">
         <v>3.96</v>
       </c>
       <c r="C16" t="n">
-        <v>-12.1928</v>
+        <v>-11.91659999999999</v>
       </c>
       <c r="D16" t="n">
         <v>-9.27</v>
@@ -757,7 +757,7 @@
         <v>11.01</v>
       </c>
       <c r="C19" t="n">
-        <v>-12.55230000000001</v>
+        <v>-12.72400000000001</v>
       </c>
       <c r="D19" t="n">
         <v>-7.9</v>
@@ -768,10 +768,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-22.86740000000001</v>
+        <v>-22.8602</v>
       </c>
       <c r="B20" t="n">
-        <v>4.963299999999996</v>
+        <v>5.134399999999997</v>
       </c>
       <c r="C20" t="n">
         <v>-14.88</v>
@@ -788,7 +788,7 @@
         <v>-19.55</v>
       </c>
       <c r="B21" t="n">
-        <v>10.6845</v>
+        <v>10.5744</v>
       </c>
       <c r="C21" t="n">
         <v>-13.13</v>
@@ -805,13 +805,13 @@
         <v>-20.06</v>
       </c>
       <c r="B22" t="n">
-        <v>8.972800000000003</v>
+        <v>8.778200000000002</v>
       </c>
       <c r="C22" t="n">
-        <v>-12.69059999999999</v>
+        <v>-12.5625</v>
       </c>
       <c r="D22" t="n">
-        <v>-8.263699999999998</v>
+        <v>-8.338400000000002</v>
       </c>
       <c r="E22" t="n">
         <v>16.18</v>
@@ -822,7 +822,7 @@
         <v>-20.35</v>
       </c>
       <c r="B23" t="n">
-        <v>8.949100000000001</v>
+        <v>8.908400000000004</v>
       </c>
       <c r="C23" t="n">
         <v>-12.89</v>
@@ -904,7 +904,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-22.01999999999999</v>
+        <v>-22.19039999999999</v>
       </c>
       <c r="B28" t="n">
         <v>5.47</v>
@@ -921,16 +921,16 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-21.7059</v>
+        <v>-21.69350000000001</v>
       </c>
       <c r="B29" t="n">
-        <v>5.219000000000003</v>
+        <v>5.377100000000001</v>
       </c>
       <c r="C29" t="n">
         <v>-11.02</v>
       </c>
       <c r="D29" t="n">
-        <v>-7.418499999999999</v>
+        <v>-7.137999999999996</v>
       </c>
       <c r="E29" t="n">
         <v>17.76</v>
@@ -972,7 +972,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-21.1967</v>
+        <v>-21.2359</v>
       </c>
       <c r="B32" t="n">
         <v>3.16</v>
@@ -1009,13 +1009,13 @@
         <v>-20.6</v>
       </c>
       <c r="B34" t="n">
-        <v>9.301600000000006</v>
+        <v>9.560500000000005</v>
       </c>
       <c r="C34" t="n">
         <v>-11.49</v>
       </c>
       <c r="D34" t="n">
-        <v>-7.906900000000004</v>
+        <v>-7.7781</v>
       </c>
       <c r="E34" t="n">
         <v>16.39</v>
@@ -1046,7 +1046,7 @@
         <v>9.84</v>
       </c>
       <c r="C36" t="n">
-        <v>-12.9037</v>
+        <v>-12.8023</v>
       </c>
       <c r="D36" t="n">
         <v>-9.050000000000001</v>
@@ -1108,7 +1108,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-19.3784</v>
+        <v>-19.351</v>
       </c>
       <c r="B40" t="n">
         <v>10.75</v>
@@ -1145,7 +1145,7 @@
         <v>-18.32</v>
       </c>
       <c r="B42" t="n">
-        <v>10.0882</v>
+        <v>10.0598</v>
       </c>
       <c r="C42" t="n">
         <v>-13.45</v>
@@ -1162,13 +1162,13 @@
         <v>-22.33</v>
       </c>
       <c r="B43" t="n">
-        <v>5.624300000000003</v>
+        <v>5.563800000000002</v>
       </c>
       <c r="C43" t="n">
         <v>-11.77</v>
       </c>
       <c r="D43" t="n">
-        <v>-8.489799999999997</v>
+        <v>-8.285199999999998</v>
       </c>
       <c r="E43" t="n">
         <v>16.64</v>
@@ -1179,7 +1179,7 @@
         <v>-21.91</v>
       </c>
       <c r="B44" t="n">
-        <v>4.929800000000004</v>
+        <v>4.993899999999999</v>
       </c>
       <c r="C44" t="n">
         <v>-10.47</v>
@@ -1196,7 +1196,7 @@
         <v>-22.15</v>
       </c>
       <c r="B45" t="n">
-        <v>5.145000000000002</v>
+        <v>5.257500000000004</v>
       </c>
       <c r="C45" t="n">
         <v>-11</v>
@@ -1210,13 +1210,13 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-19.78379999999999</v>
+        <v>-22.2432</v>
       </c>
       <c r="B46" t="n">
-        <v>9.206400000000002</v>
+        <v>5.475199999999996</v>
       </c>
       <c r="C46" t="n">
-        <v>-13.17219999999999</v>
+        <v>-13.90379999999999</v>
       </c>
       <c r="D46" t="n">
         <v>-8.09</v>
@@ -1253,7 +1253,7 @@
         <v>-10.86</v>
       </c>
       <c r="D48" t="n">
-        <v>-7.714399999999997</v>
+        <v>-7.822399999999996</v>
       </c>
       <c r="E48" t="n">
         <v>17.41</v>
@@ -1281,10 +1281,10 @@
         <v>-22.25</v>
       </c>
       <c r="B50" t="n">
-        <v>4.776999999999998</v>
+        <v>4.628999999999997</v>
       </c>
       <c r="C50" t="n">
-        <v>-13.18099999999999</v>
+        <v>-13.31519999999999</v>
       </c>
       <c r="D50" t="n">
         <v>-8.029999999999999</v>
@@ -1295,10 +1295,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>-22.22180000000001</v>
+        <v>-22.2333</v>
       </c>
       <c r="B51" t="n">
-        <v>5.5012</v>
+        <v>5.168299999999999</v>
       </c>
       <c r="C51" t="n">
         <v>-13.17</v>
@@ -1312,7 +1312,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-22.0932</v>
+        <v>-21.98949999999999</v>
       </c>
       <c r="B52" t="n">
         <v>6.39</v>
@@ -1397,7 +1397,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-22.83460000000001</v>
+        <v>-22.77840000000002</v>
       </c>
       <c r="B57" t="n">
         <v>4.82</v>
@@ -1431,7 +1431,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-22.11200000000001</v>
+        <v>-22.1133</v>
       </c>
       <c r="B59" t="n">
         <v>4.58</v>
@@ -1457,7 +1457,7 @@
         <v>-13.33</v>
       </c>
       <c r="D60" t="n">
-        <v>-8.1379</v>
+        <v>-8.2742</v>
       </c>
       <c r="E60" t="n">
         <v>16.4</v>
@@ -1482,7 +1482,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>-22.1784</v>
+        <v>-21.9883</v>
       </c>
       <c r="B62" t="n">
         <v>4.28</v>
@@ -1550,10 +1550,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-21.5338</v>
+        <v>-21.5414</v>
       </c>
       <c r="B66" t="n">
-        <v>4.852199999999997</v>
+        <v>4.800099999999997</v>
       </c>
       <c r="C66" t="n">
         <v>-10.51</v>
@@ -1570,7 +1570,7 @@
         <v>-21.67</v>
       </c>
       <c r="B67" t="n">
-        <v>5.1462</v>
+        <v>5.111499999999998</v>
       </c>
       <c r="C67" t="n">
         <v>-10.67</v>
@@ -1593,7 +1593,7 @@
         <v>-9.98</v>
       </c>
       <c r="D68" t="n">
-        <v>-6.908799999999997</v>
+        <v>-7.019799999999998</v>
       </c>
       <c r="E68" t="n">
         <v>17.66</v>
@@ -1627,7 +1627,7 @@
         <v>-9.9</v>
       </c>
       <c r="D70" t="n">
-        <v>-7.5306</v>
+        <v>-7.645899999999997</v>
       </c>
       <c r="E70" t="n">
         <v>17.62</v>
@@ -1669,7 +1669,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-19.80840000000001</v>
+        <v>-19.5233</v>
       </c>
       <c r="B73" t="n">
         <v>10.24</v>
@@ -1678,7 +1678,7 @@
         <v>-15.02</v>
       </c>
       <c r="D73" t="n">
-        <v>-7.929900000000001</v>
+        <v>-7.969200000000005</v>
       </c>
       <c r="E73" t="n">
         <v>16.21</v>
@@ -1686,7 +1686,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>-21.82249999999999</v>
+        <v>-21.95609999999999</v>
       </c>
       <c r="B74" t="n">
         <v>7.45</v>
@@ -1774,7 +1774,7 @@
         <v>-20.57</v>
       </c>
       <c r="B79" t="n">
-        <v>9.945400000000008</v>
+        <v>9.91950000000001</v>
       </c>
       <c r="C79" t="n">
         <v>-9.779999999999999</v>
@@ -1859,7 +1859,7 @@
         <v>-22.05</v>
       </c>
       <c r="B84" t="n">
-        <v>5.391600000000002</v>
+        <v>5.468500000000001</v>
       </c>
       <c r="C84" t="n">
         <v>-12.28</v>
@@ -1916,7 +1916,7 @@
         <v>-15.19</v>
       </c>
       <c r="D87" t="n">
-        <v>-8.658999999999994</v>
+        <v>-9.577699999999988</v>
       </c>
       <c r="E87" t="n">
         <v>16.53</v>
@@ -1992,16 +1992,16 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>-21.53630000000001</v>
+        <v>-21.57380000000002</v>
       </c>
       <c r="B92" t="n">
-        <v>4.655899999999995</v>
+        <v>4.637799999999995</v>
       </c>
       <c r="C92" t="n">
         <v>-9.49</v>
       </c>
       <c r="D92" t="n">
-        <v>-6.223100000000001</v>
+        <v>-6.2357</v>
       </c>
       <c r="E92" t="n">
         <v>19.64</v>
@@ -2049,7 +2049,7 @@
         <v>6.4</v>
       </c>
       <c r="C95" t="n">
-        <v>-11.72320000000001</v>
+        <v>-11.36320000000001</v>
       </c>
       <c r="D95" t="n">
         <v>-6.44</v>
@@ -2080,10 +2080,10 @@
         <v>-21.32</v>
       </c>
       <c r="B97" t="n">
-        <v>6.406199999999997</v>
+        <v>6.022600000000002</v>
       </c>
       <c r="C97" t="n">
-        <v>-12.13460000000001</v>
+        <v>-11.6501</v>
       </c>
       <c r="D97" t="n">
         <v>-7.59</v>
@@ -2128,7 +2128,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-22.1358</v>
+        <v>-22.21260000000001</v>
       </c>
       <c r="B100" t="n">
         <v>5.09</v>
@@ -2154,7 +2154,7 @@
         <v>-11.07</v>
       </c>
       <c r="D101" t="n">
-        <v>-8.0009</v>
+        <v>-7.992700000000002</v>
       </c>
       <c r="E101" t="n">
         <v>16.32</v>
